--- a/data/quiz/e4v2/study_habits.xlsx
+++ b/data/quiz/e4v2/study_habits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d14353b491619df/Desktop/Desktop/BYU-I/Courses/Math 221B/Exams/Exam 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\quiz\e4v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{57501A40-1B3F-455B-8CC9-B0C1AA1BB4DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2EA802CB-2521-416F-93A5-0A234DDA3916}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C91AE5-E06F-4B5B-BE49-33BC0CCC9BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6A4B610-0AB9-4968-B358-5DBF355B54C5}"/>
+    <workbookView xWindow="-57720" yWindow="-13515" windowWidth="29040" windowHeight="16440" xr2:uid="{B6A4B610-0AB9-4968-B358-5DBF355B54C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Women</t>
+    <t>women</t>
   </si>
   <si>
-    <t>Men</t>
+    <t>men</t>
   </si>
 </sst>
 </file>
@@ -390,13 +390,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E97DE87-ED9A-4A5C-8E98-D8184E129E91}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -404,7 +402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>108</v>
       </c>
@@ -412,7 +410,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>140</v>
       </c>
@@ -420,7 +418,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>114</v>
       </c>
@@ -428,7 +426,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>91</v>
       </c>
@@ -436,7 +434,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>180</v>
       </c>
@@ -444,7 +442,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>115</v>
       </c>
@@ -452,7 +450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>126</v>
       </c>
@@ -460,7 +458,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>92</v>
       </c>
@@ -468,7 +466,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>169</v>
       </c>
@@ -476,7 +474,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>146</v>
       </c>
@@ -484,7 +482,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>109</v>
       </c>
@@ -492,7 +490,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>132</v>
       </c>
@@ -500,7 +498,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>75</v>
       </c>
@@ -508,7 +506,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>88</v>
       </c>
@@ -516,7 +514,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>113</v>
       </c>
@@ -524,7 +522,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>151</v>
       </c>
@@ -532,7 +530,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>187</v>
       </c>
@@ -540,7 +538,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>115</v>
       </c>
